--- a/documentos/Gestão de Projetos de Software/entrega 1/WBS - Muuve Now 2.0.xlsx
+++ b/documentos/Gestão de Projetos de Software/entrega 1/WBS - Muuve Now 2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23747441\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0DA4A02-0DAE-484F-B2F3-D4A9C58463C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2C8901-67BD-4E4B-8317-87B0518C4278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" tabRatio="854" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Charter" sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2301,68 +2301,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2375,6 +2321,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2400,10 +2349,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2442,6 +2403,45 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2471,9 +2471,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,6 +2484,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -7611,8 +7611,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14297384" y="2274495"/>
-          <a:ext cx="144216" cy="1949619"/>
+          <a:off x="14259265" y="2312456"/>
+          <a:ext cx="143832" cy="1944421"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7626,10 +7626,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1949619"/>
+                <a:pt x="0" y="1944421"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="144216" y="1949619"/>
+                <a:pt x="143832" y="1944421"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7669,8 +7669,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14297384" y="2274495"/>
-          <a:ext cx="144216" cy="1213327"/>
+          <a:off x="14259265" y="2312456"/>
+          <a:ext cx="143832" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7684,10 +7684,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="144216" y="1213327"/>
+                <a:pt x="143832" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7727,8 +7727,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14297384" y="2274495"/>
-          <a:ext cx="144216" cy="477034"/>
+          <a:off x="14259265" y="2312456"/>
+          <a:ext cx="143832" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7742,10 +7742,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="144216" y="477034"/>
+                <a:pt x="143832" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7785,8 +7785,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="7199916" cy="617744"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="7180720" cy="616097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7800,13 +7800,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="508855"/>
+                <a:pt x="0" y="507499"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="7199916" y="508855"/>
+                <a:pt x="7180720" y="507499"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="7199916" y="617744"/>
+                <a:pt x="7180720" y="616097"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7846,8 +7846,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12906078" y="2263373"/>
-          <a:ext cx="212080" cy="1960741"/>
+          <a:off x="12871669" y="2301363"/>
+          <a:ext cx="211515" cy="1955514"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7861,10 +7861,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1960741"/>
+                <a:pt x="0" y="1955514"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="212080" y="1960741"/>
+                <a:pt x="211515" y="1955514"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7904,8 +7904,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12906078" y="2263373"/>
-          <a:ext cx="212080" cy="1224449"/>
+          <a:off x="12871669" y="2301363"/>
+          <a:ext cx="211515" cy="1221184"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7919,10 +7919,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1224449"/>
+                <a:pt x="0" y="1221184"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="212080" y="1224449"/>
+                <a:pt x="211515" y="1221184"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7962,8 +7962,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12906078" y="2263373"/>
-          <a:ext cx="212080" cy="488156"/>
+          <a:off x="12871669" y="2301363"/>
+          <a:ext cx="211515" cy="486855"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7977,10 +7977,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="488156"/>
+                <a:pt x="0" y="486855"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="212080" y="488156"/>
+                <a:pt x="211515" y="486855"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8020,8 +8020,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="5989581" cy="606622"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="5973612" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8035,13 +8035,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5989581" y="497733"/>
+                <a:pt x="5973612" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5989581" y="606622"/>
+                <a:pt x="5973612" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8081,8 +8081,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11633096" y="2263373"/>
-          <a:ext cx="184819" cy="1960741"/>
+          <a:off x="11602081" y="2301363"/>
+          <a:ext cx="184327" cy="1955514"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8096,10 +8096,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1960741"/>
+                <a:pt x="0" y="1955514"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="184819" y="1960741"/>
+                <a:pt x="184327" y="1955514"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8139,8 +8139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11633096" y="2263373"/>
-          <a:ext cx="184819" cy="1224449"/>
+          <a:off x="11602081" y="2301363"/>
+          <a:ext cx="184327" cy="1221184"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8154,10 +8154,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1224449"/>
+                <a:pt x="0" y="1221184"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="184819" y="1224449"/>
+                <a:pt x="184327" y="1221184"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8197,8 +8197,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11633096" y="2263373"/>
-          <a:ext cx="184819" cy="488156"/>
+          <a:off x="11602081" y="2301363"/>
+          <a:ext cx="184327" cy="486855"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8212,10 +8212,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="488156"/>
+                <a:pt x="0" y="486855"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="184819" y="488156"/>
+                <a:pt x="184327" y="486855"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8255,8 +8255,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="4643902" cy="606622"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="4631521" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8270,13 +8270,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4643902" y="497733"/>
+                <a:pt x="4631521" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4643902" y="606622"/>
+                <a:pt x="4631521" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8316,8 +8316,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10407553" y="2263373"/>
-          <a:ext cx="155554" cy="1960741"/>
+          <a:off x="10379805" y="2301363"/>
+          <a:ext cx="155140" cy="1955514"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8331,10 +8331,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1960741"/>
+                <a:pt x="0" y="1955514"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1960741"/>
+                <a:pt x="155140" y="1955514"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8374,8 +8374,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10407553" y="2263373"/>
-          <a:ext cx="155554" cy="1224449"/>
+          <a:off x="10379805" y="2301363"/>
+          <a:ext cx="155140" cy="1221184"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8389,10 +8389,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1224449"/>
+                <a:pt x="0" y="1221184"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1224449"/>
+                <a:pt x="155140" y="1221184"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8432,8 +8432,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10407553" y="2263373"/>
-          <a:ext cx="155554" cy="488156"/>
+          <a:off x="10379805" y="2301363"/>
+          <a:ext cx="155140" cy="486855"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8447,10 +8447,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="488156"/>
+                <a:pt x="0" y="486855"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="488156"/>
+                <a:pt x="155140" y="486855"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8490,8 +8490,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="3418359" cy="606622"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="3409245" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8505,13 +8505,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3418359" y="497733"/>
+                <a:pt x="3409245" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3418359" y="606622"/>
+                <a:pt x="3409245" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8551,8 +8551,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9152744" y="2263373"/>
-          <a:ext cx="155554" cy="1960741"/>
+          <a:off x="9128342" y="2301363"/>
+          <a:ext cx="155140" cy="1955514"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8566,10 +8566,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1960741"/>
+                <a:pt x="0" y="1955514"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1960741"/>
+                <a:pt x="155140" y="1955514"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8609,8 +8609,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9152744" y="2263373"/>
-          <a:ext cx="155554" cy="1224449"/>
+          <a:off x="9128342" y="2301363"/>
+          <a:ext cx="155140" cy="1221184"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8624,10 +8624,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1224449"/>
+                <a:pt x="0" y="1221184"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1224449"/>
+                <a:pt x="155140" y="1221184"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8667,8 +8667,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9152744" y="2263373"/>
-          <a:ext cx="155554" cy="488156"/>
+          <a:off x="9128342" y="2301363"/>
+          <a:ext cx="155140" cy="486855"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8682,10 +8682,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="488156"/>
+                <a:pt x="0" y="486855"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="488156"/>
+                <a:pt x="155140" y="486855"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8725,8 +8725,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="2163551" cy="606622"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="2157783" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8740,13 +8740,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2163551" y="497733"/>
+                <a:pt x="2157783" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2163551" y="606622"/>
+                <a:pt x="2157783" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8786,8 +8786,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7822038" y="2263373"/>
-          <a:ext cx="168204" cy="1960741"/>
+          <a:off x="7801183" y="2301363"/>
+          <a:ext cx="167756" cy="1955514"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8801,10 +8801,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1960741"/>
+                <a:pt x="0" y="1955514"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="168204" y="1960741"/>
+                <a:pt x="167756" y="1955514"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8844,8 +8844,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7822038" y="2263373"/>
-          <a:ext cx="168204" cy="1224449"/>
+          <a:off x="7801183" y="2301363"/>
+          <a:ext cx="167756" cy="1221184"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8859,10 +8859,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1224449"/>
+                <a:pt x="0" y="1221184"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="168204" y="1224449"/>
+                <a:pt x="167756" y="1221184"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8902,8 +8902,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7822038" y="2263373"/>
-          <a:ext cx="168204" cy="488156"/>
+          <a:off x="7801183" y="2301363"/>
+          <a:ext cx="167756" cy="486855"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8917,10 +8917,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="488156"/>
+                <a:pt x="0" y="486855"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="168204" y="488156"/>
+                <a:pt x="167756" y="486855"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8960,8 +8960,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7404006" y="1138235"/>
-          <a:ext cx="866577" cy="606622"/>
+          <a:off x="7384266" y="1179225"/>
+          <a:ext cx="864266" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8975,13 +8975,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="866577" y="497733"/>
+                <a:pt x="864266" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="866577" y="606622"/>
+                <a:pt x="864266" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9021,8 +9021,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6579879" y="3010787"/>
-          <a:ext cx="155554" cy="2685912"/>
+          <a:off x="6562336" y="3046785"/>
+          <a:ext cx="155140" cy="2678751"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9036,10 +9036,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2685912"/>
+                <a:pt x="0" y="2678751"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="2685912"/>
+                <a:pt x="155140" y="2678751"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9079,8 +9079,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6579879" y="3010787"/>
-          <a:ext cx="155554" cy="1949619"/>
+          <a:off x="6562336" y="3046785"/>
+          <a:ext cx="155140" cy="1944421"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9094,10 +9094,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1949619"/>
+                <a:pt x="0" y="1944421"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1949619"/>
+                <a:pt x="155140" y="1944421"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9137,8 +9137,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6579879" y="3010787"/>
-          <a:ext cx="155554" cy="1213327"/>
+          <a:off x="6562336" y="3046785"/>
+          <a:ext cx="155140" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9152,10 +9152,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1213327"/>
+                <a:pt x="155140" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9195,8 +9195,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6579879" y="3010787"/>
-          <a:ext cx="155554" cy="477034"/>
+          <a:off x="6562336" y="3046785"/>
+          <a:ext cx="155140" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9210,10 +9210,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="477034"/>
+                <a:pt x="155140" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9253,8 +9253,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6367288" y="2263373"/>
-          <a:ext cx="627404" cy="228898"/>
+          <a:off x="6350312" y="2301363"/>
+          <a:ext cx="625731" cy="228288"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9268,13 +9268,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="120010"/>
+                <a:pt x="0" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="627404" y="120010"/>
+                <a:pt x="625731" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="627404" y="228898"/>
+                <a:pt x="625731" y="228288"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9314,8 +9314,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5325071" y="3010787"/>
-          <a:ext cx="155554" cy="1213327"/>
+          <a:off x="5310874" y="3046785"/>
+          <a:ext cx="155140" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9329,10 +9329,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1213327"/>
+                <a:pt x="155140" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9372,8 +9372,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5325071" y="3010787"/>
-          <a:ext cx="155554" cy="477034"/>
+          <a:off x="5310874" y="3046785"/>
+          <a:ext cx="155140" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9387,10 +9387,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="477034"/>
+                <a:pt x="155140" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9430,8 +9430,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5739884" y="2263373"/>
-          <a:ext cx="627404" cy="228898"/>
+          <a:off x="5724580" y="2301363"/>
+          <a:ext cx="625731" cy="228288"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9442,16 +9442,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="627404" y="0"/>
+                <a:pt x="625731" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="627404" y="120010"/>
+                <a:pt x="625731" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="120010"/>
+                <a:pt x="0" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="228898"/>
+                <a:pt x="0" y="228288"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9491,8 +9491,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6367288" y="1138235"/>
-          <a:ext cx="1036717" cy="606622"/>
+          <a:off x="6350312" y="1179225"/>
+          <a:ext cx="1033953" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9503,16 +9503,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1036717" y="0"/>
+                <a:pt x="1033953" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1036717" y="497733"/>
+                <a:pt x="1033953" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="606622"/>
+                <a:pt x="0" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9552,8 +9552,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4070263" y="3010787"/>
-          <a:ext cx="155554" cy="1213327"/>
+          <a:off x="4059411" y="3046785"/>
+          <a:ext cx="155140" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9567,10 +9567,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1213327"/>
+                <a:pt x="155140" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9610,8 +9610,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4070263" y="3010787"/>
-          <a:ext cx="155554" cy="477034"/>
+          <a:off x="4059411" y="3046785"/>
+          <a:ext cx="155140" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9625,10 +9625,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="477034"/>
+                <a:pt x="155140" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9668,8 +9668,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3857671" y="2263373"/>
-          <a:ext cx="627404" cy="228898"/>
+          <a:off x="3847386" y="2301363"/>
+          <a:ext cx="625731" cy="228288"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9683,13 +9683,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="120010"/>
+                <a:pt x="0" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="627404" y="120010"/>
+                <a:pt x="625731" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="627404" y="228898"/>
+                <a:pt x="625731" y="228288"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9729,8 +9729,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2815454" y="3010787"/>
-          <a:ext cx="155554" cy="1213327"/>
+          <a:off x="2807948" y="3046785"/>
+          <a:ext cx="155140" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9744,10 +9744,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1213327"/>
+                <a:pt x="155140" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9787,8 +9787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2815454" y="3010787"/>
-          <a:ext cx="155554" cy="477034"/>
+          <a:off x="2807948" y="3046785"/>
+          <a:ext cx="155140" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9802,10 +9802,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="477034"/>
+                <a:pt x="155140" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9845,8 +9845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3230267" y="2263373"/>
-          <a:ext cx="627404" cy="228898"/>
+          <a:off x="3221655" y="2301363"/>
+          <a:ext cx="625731" cy="228288"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9857,16 +9857,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="627404" y="0"/>
+                <a:pt x="625731" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="627404" y="120010"/>
+                <a:pt x="625731" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="120010"/>
+                <a:pt x="0" y="119690"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="228898"/>
+                <a:pt x="0" y="228288"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9906,8 +9906,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3857671" y="1138235"/>
-          <a:ext cx="3546334" cy="606622"/>
+          <a:off x="3847386" y="1179225"/>
+          <a:ext cx="3536879" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9918,16 +9918,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3546334" y="0"/>
+                <a:pt x="3536879" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3546334" y="497733"/>
+                <a:pt x="3536879" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="606622"/>
+                <a:pt x="0" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9967,8 +9967,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1560646" y="3747080"/>
-          <a:ext cx="155554" cy="1213327"/>
+          <a:off x="1556485" y="3781114"/>
+          <a:ext cx="155140" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9982,10 +9982,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="1213327"/>
+                <a:pt x="155140" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10025,8 +10025,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1560646" y="3747080"/>
-          <a:ext cx="155554" cy="477034"/>
+          <a:off x="1556485" y="3781114"/>
+          <a:ext cx="155140" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10040,10 +10040,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155554" y="477034"/>
+                <a:pt x="155140" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10083,8 +10083,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929739" y="3010787"/>
-          <a:ext cx="91440" cy="217776"/>
+          <a:off x="1924472" y="3046785"/>
+          <a:ext cx="91440" cy="217196"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10098,7 +10098,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="217776"/>
+                <a:pt x="45720" y="217196"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10138,8 +10138,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1929739" y="2263373"/>
-          <a:ext cx="91440" cy="228898"/>
+          <a:off x="1924472" y="2301363"/>
+          <a:ext cx="91440" cy="228288"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10153,7 +10153,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="228898"/>
+                <a:pt x="45720" y="228288"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10193,8 +10193,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1975459" y="1138235"/>
-          <a:ext cx="5428547" cy="606622"/>
+          <a:off x="1970192" y="1179225"/>
+          <a:ext cx="5414073" cy="605004"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10205,16 +10205,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="5428547" y="0"/>
+                <a:pt x="5414073" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5428547" y="497733"/>
+                <a:pt x="5414073" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="497733"/>
+                <a:pt x="0" y="496406"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="606622"/>
+                <a:pt x="0" y="605004"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10254,8 +10254,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="79787" y="2274495"/>
-          <a:ext cx="122347" cy="1949619"/>
+          <a:off x="79574" y="2312456"/>
+          <a:ext cx="122021" cy="1944421"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10269,10 +10269,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1949619"/>
+                <a:pt x="0" y="1944421"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="122347" y="1949619"/>
+                <a:pt x="122021" y="1944421"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10312,8 +10312,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="79787" y="2274495"/>
-          <a:ext cx="122347" cy="1213327"/>
+          <a:off x="79574" y="2312456"/>
+          <a:ext cx="122021" cy="1210092"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10327,10 +10327,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1213327"/>
+                <a:pt x="0" y="1210092"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="122347" y="1213327"/>
+                <a:pt x="122021" y="1210092"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10370,8 +10370,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="79787" y="2274495"/>
-          <a:ext cx="122347" cy="477034"/>
+          <a:off x="79574" y="2312456"/>
+          <a:ext cx="122021" cy="475762"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10385,10 +10385,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="477034"/>
+                <a:pt x="0" y="475762"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="122347" y="477034"/>
+                <a:pt x="122021" y="475762"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10428,8 +10428,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="398935" y="1138235"/>
-          <a:ext cx="7005070" cy="617744"/>
+          <a:off x="397872" y="1179225"/>
+          <a:ext cx="6986394" cy="616097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10440,16 +10440,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="7005070" y="0"/>
+                <a:pt x="6986394" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="7005070" y="508855"/>
+                <a:pt x="6986394" y="507499"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="508855"/>
+                <a:pt x="0" y="507499"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="617744"/>
+                <a:pt x="0" y="616097"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10489,8 +10489,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6625392" y="470324"/>
-          <a:ext cx="1557227" cy="667910"/>
+          <a:off x="6607728" y="513095"/>
+          <a:ext cx="1553075" cy="666129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10548,8 +10548,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6625392" y="470324"/>
-        <a:ext cx="1557227" cy="667910"/>
+        <a:off x="6607728" y="513095"/>
+        <a:ext cx="1553075" cy="666129"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4C9AEEA8-806B-4221-A8CF-497F84C39D63}">
@@ -10559,8 +10559,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1755979"/>
-          <a:ext cx="797871" cy="518515"/>
+          <a:off x="0" y="1795322"/>
+          <a:ext cx="795744" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10620,8 +10620,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="0" y="1755979"/>
-        <a:ext cx="797871" cy="518515"/>
+        <a:off x="0" y="1795322"/>
+        <a:ext cx="795744" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9E9FE827-52A4-46D9-ADB2-E6FCF0B9E008}">
@@ -10631,8 +10631,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="202134" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="201596" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10722,8 +10722,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="202134" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="201596" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CF1CE0D6-2000-45B7-B412-882350AF6F25}">
@@ -10733,8 +10733,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="202134" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="201596" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10824,8 +10824,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="202134" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="201596" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{422A5DCC-F310-4179-AC5C-3A5AA9AB3509}">
@@ -10835,8 +10835,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="202134" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="201596" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10926,8 +10926,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="202134" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="201596" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D170E32D-A43F-4CAB-A215-C289F970862B}">
@@ -10937,8 +10937,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1454656" y="1744857"/>
-          <a:ext cx="1041604" cy="518515"/>
+          <a:off x="1450778" y="1784230"/>
+          <a:ext cx="1038827" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10998,8 +10998,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1454656" y="1744857"/>
-        <a:ext cx="1041604" cy="518515"/>
+        <a:off x="1450778" y="1784230"/>
+        <a:ext cx="1038827" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8D28DA9C-651E-493C-AEB4-8DE7C4670A76}">
@@ -11009,8 +11009,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1456943" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="1453058" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11100,8 +11100,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1456943" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="1453058" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{72AC346F-2F4E-444E-8C03-BD2A3B5A48DE}">
@@ -11111,8 +11111,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1456943" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="1453058" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11202,8 +11202,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1456943" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="1453058" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3C105CD6-BA5F-4296-9ADF-C21FEB294665}">
@@ -11213,8 +11213,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1716201" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="1711625" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11304,8 +11304,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1716201" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="1711625" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{539C43EC-88FB-4101-BFC8-2FBEBDCB1CFF}">
@@ -11315,8 +11315,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1716201" y="4701149"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="1711625" y="4732640"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11406,8 +11406,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1716201" y="4701149"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="1711625" y="4732640"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5368EF9E-E26F-497A-B704-8C2CE5D835FD}">
@@ -11417,8 +11417,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3339155" y="1744857"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="3330253" y="1784230"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11496,8 +11496,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3339155" y="1744857"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="3330253" y="1784230"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3CB81659-FE3C-423B-9CBD-B42FC5FE3EA0}">
@@ -11507,8 +11507,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2711751" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="2704521" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11598,8 +11598,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2711751" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="2704521" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{07D3882F-C235-4ADF-85FA-E879C777A8BD}">
@@ -11609,8 +11609,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2971009" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="2963088" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11700,8 +11700,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2971009" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="2963088" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D7DDDDF0-F44F-4B11-B08B-89295DEA0D9B}">
@@ -11711,8 +11711,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2971009" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="2963088" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11802,8 +11802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2971009" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="2963088" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{12FDCBF9-3BED-482D-906E-5A09DB8EAF1F}">
@@ -11813,8 +11813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3966559" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="3955984" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11904,8 +11904,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3966559" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="3955984" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1E535ECD-9FA0-4E48-A66D-29FFB2AB3B70}">
@@ -11915,8 +11915,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4225817" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="4214551" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12006,8 +12006,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4225817" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="4214551" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A7F2A46-750F-45A2-923B-D1292802EFDC}">
@@ -12017,8 +12017,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4225817" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="4214551" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12108,8 +12108,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4225817" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="4214551" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{34D49AA9-33AD-4664-ADD5-58DB46EB9889}">
@@ -12119,8 +12119,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5725023" y="1744857"/>
-          <a:ext cx="1284529" cy="518515"/>
+          <a:off x="5709759" y="1784230"/>
+          <a:ext cx="1281104" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12210,8 +12210,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5725023" y="1744857"/>
-        <a:ext cx="1284529" cy="518515"/>
+        <a:off x="5709759" y="1784230"/>
+        <a:ext cx="1281104" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DA2E93DC-BB1D-4564-889B-BA004AC786E0}">
@@ -12221,8 +12221,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5221368" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="5207447" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12312,8 +12312,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5221368" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="5207447" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{47D7B08E-C006-4337-AFA5-B2B6AB5330E7}">
@@ -12323,8 +12323,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5480626" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="5466014" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12414,8 +12414,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5480626" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="5466014" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{43E1BAD0-C612-479E-A76D-9ADDAE663A0D}">
@@ -12425,8 +12425,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5480626" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="5466014" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12516,8 +12516,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5480626" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="5466014" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4CB3CC10-420D-4678-B4A5-F650FAA65CFC}">
@@ -12527,8 +12527,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6476176" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="6458910" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12618,8 +12618,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6476176" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="6458910" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4AD3C1C4-D9EA-4B51-B2F8-F5F336E1219A}">
@@ -12629,8 +12629,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6735434" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="6717476" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12720,8 +12720,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6735434" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="6717476" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8106893D-3A89-48AC-99BF-9C6C7C662C1D}">
@@ -12731,8 +12731,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6735434" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="6717476" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12822,8 +12822,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6735434" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="6717476" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A197E7E5-E989-4B2D-830A-0E09071FB3E2}">
@@ -12833,8 +12833,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6735434" y="4701149"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="6717476" y="4732640"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12924,8 +12924,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6735434" y="4701149"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="6717476" y="4732640"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3E12F04B-AEE9-4FA8-82CD-FE26490B5B1C}">
@@ -12935,8 +12935,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6735434" y="5437441"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="6717476" y="5466969"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13026,8 +13026,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6735434" y="5437441"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="6717476" y="5466969"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3A2A1C1F-CABC-4C98-B728-F262323AA994}">
@@ -13037,8 +13037,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7709902" y="1744857"/>
-          <a:ext cx="1121363" cy="518515"/>
+          <a:off x="7689346" y="1784230"/>
+          <a:ext cx="1118373" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13098,8 +13098,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7709902" y="1744857"/>
-        <a:ext cx="1121363" cy="518515"/>
+        <a:off x="7689346" y="1784230"/>
+        <a:ext cx="1118373" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6BAFA004-7462-4BB3-8CF7-8F0FAE532698}">
@@ -13109,8 +13109,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7990242" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="7968939" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13200,8 +13200,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7990242" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="7968939" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8214640F-5D66-49B2-997F-5F320E255B10}">
@@ -13211,8 +13211,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7990242" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="7968939" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13302,8 +13302,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7990242" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="7968939" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0CE7C8B4-F8E6-429D-8C4A-73E9D60DCB81}">
@@ -13313,8 +13313,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7990242" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="7968939" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13404,8 +13404,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7990242" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="7968939" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9A681887-5350-4EBE-BD43-C7E4297AB1BB}">
@@ -13415,8 +13415,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9049041" y="1744857"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="9024915" y="1784230"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13476,8 +13476,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9049041" y="1744857"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="9024915" y="1784230"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A4073290-40FA-4447-A63D-A2A271E69369}">
@@ -13487,8 +13487,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9308299" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="9283482" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13583,8 +13583,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9308299" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="9283482" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CC7BE9CC-9E44-4B05-9B0E-850124C3547A}">
@@ -13594,8 +13594,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9308299" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="9283482" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13685,8 +13685,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9308299" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="9283482" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{55EC4157-21BA-4613-8860-42E031585862}">
@@ -13696,8 +13696,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9308299" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="9283482" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13787,8 +13787,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9308299" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="9283482" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{36F65EB3-A93B-4BDE-AD59-D991F66D50DB}">
@@ -13798,8 +13798,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10303850" y="1744857"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="10276378" y="1784230"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13859,8 +13859,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10303850" y="1744857"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="10276378" y="1784230"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{26279B3F-32AE-429E-8F6A-E74283514EA0}">
@@ -13870,8 +13870,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10563107" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="10534945" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13961,8 +13961,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10563107" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="10534945" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{463E7EE2-DBFC-4EC0-BC5D-9271F221CF32}">
@@ -13972,8 +13972,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10563107" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="10534945" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14063,8 +14063,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10563107" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="10534945" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{133F1FC1-C5F4-4978-BE80-4F349F36D878}">
@@ -14074,8 +14074,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10563107" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="10534945" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14165,8 +14165,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10563107" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="10534945" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{66215115-E87F-416B-87DA-9B997A3EC349}">
@@ -14176,8 +14176,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11529393" y="1744857"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="11498654" y="1784230"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14255,8 +14255,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11529393" y="1744857"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="11498654" y="1784230"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{526919F3-C1E6-4952-AA9E-1BBFD8E73B82}">
@@ -14266,8 +14266,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11817916" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="11786408" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14357,8 +14357,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11817916" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="11786408" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ECADA643-1779-4DA2-8AA6-C1EAF32B0C15}">
@@ -14368,8 +14368,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11817916" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="11786408" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14459,8 +14459,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11817916" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="11786408" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{77F7510F-B277-4906-B909-89B1197C6DDE}">
@@ -14470,8 +14470,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11817916" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="11786408" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14561,8 +14561,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11817916" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="11786408" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9A7C5AEB-3E05-469A-95FE-22BE39540AE1}">
@@ -14572,8 +14572,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12784201" y="1744857"/>
-          <a:ext cx="1218771" cy="518515"/>
+          <a:off x="12750117" y="1784230"/>
+          <a:ext cx="1215522" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14651,8 +14651,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12784201" y="1744857"/>
-        <a:ext cx="1218771" cy="518515"/>
+        <a:off x="12750117" y="1784230"/>
+        <a:ext cx="1215522" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{250F3822-B3AA-4407-90AE-B2B8D5EF00A9}">
@@ -14662,8 +14662,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13118159" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="13083184" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14753,8 +14753,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13118159" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="13083184" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9BEC86F9-D6A7-4983-86A8-08577B7FE900}">
@@ -14764,8 +14764,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13118159" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="13083184" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14855,8 +14855,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13118159" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="13083184" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{68D73AD6-74BD-4C2E-A75E-08E466B13B32}">
@@ -14866,8 +14866,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13118159" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="13083184" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14957,8 +14957,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13118159" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="13083184" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F5C5F184-CBCA-49BB-BB7E-3A0146C211EB}">
@@ -14968,8 +14968,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14220749" y="1755979"/>
-          <a:ext cx="766345" cy="518515"/>
+          <a:off x="14182835" y="1795322"/>
+          <a:ext cx="764302" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15029,8 +15029,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14220749" y="1755979"/>
-        <a:ext cx="766345" cy="518515"/>
+        <a:off x="14182835" y="1795322"/>
+        <a:ext cx="764302" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3E37B074-43F2-410D-A821-9E917734EEF5}">
@@ -15040,8 +15040,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14441601" y="2492271"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="14403098" y="2529652"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15131,8 +15131,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14441601" y="2492271"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="14403098" y="2529652"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E1649481-31C2-4E1C-A6F3-BCDF01D59BD2}">
@@ -15142,8 +15142,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14441601" y="3228564"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="14403098" y="3263981"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15233,8 +15233,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14441601" y="3228564"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="14403098" y="3263981"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5D899EB1-B601-4B33-9059-E0DEFEEE5318}">
@@ -15244,8 +15244,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14441601" y="3964856"/>
-          <a:ext cx="1037031" cy="518515"/>
+          <a:off x="14403098" y="3998310"/>
+          <a:ext cx="1034266" cy="517133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15369,8 +15369,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14441601" y="3964856"/>
-        <a:ext cx="1037031" cy="518515"/>
+        <a:off x="14403098" y="3998310"/>
+        <a:ext cx="1034266" cy="517133"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18347,7 +18347,51 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="8">
+        <row r="5">
+          <cell r="AB5" t="str">
+            <v>Diária</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AB6" t="str">
+            <v>Semanal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AB7" t="str">
+            <v>Bissemanal</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AB8" t="str">
+            <v>Mensal</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15" t="str">
+            <v>Pt-br</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>Inglês</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Cliente</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Interno</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Teste</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
@@ -19058,7 +19102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="Tabela dinâmica2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="Tabela dinâmica2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" fieldListSortAscending="1">
   <location ref="A3:E55" firstHeaderRow="2" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0">
@@ -19854,7 +19898,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E10" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -19873,7 +19917,7 @@
   </sheetPr>
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
@@ -20351,1522 +20395,1538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="158"/>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="158"/>
-      <c r="AJ1" s="158"/>
+      <c r="A1" s="151"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="145"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="182" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="158"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="158"/>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="158"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
     </row>
     <row r="4" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="148"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
     </row>
     <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="148"/>
-      <c r="B6" s="155" t="s">
+      <c r="A6" s="151"/>
+      <c r="B6" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="148"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="158"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="145"/>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="145"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="148"/>
-      <c r="B8" s="150" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151" t="s">
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
     </row>
     <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="148"/>
-      <c r="B9" s="150" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151" t="s">
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
-      <c r="AJ9" s="158"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
     </row>
     <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="148"/>
-      <c r="B10" s="150" t="s">
+      <c r="A10" s="151"/>
+      <c r="B10" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="153" t="s">
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="158"/>
-      <c r="AJ11" s="158"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="145"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="145"/>
+      <c r="AJ11" s="145"/>
     </row>
     <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="155" t="s">
+      <c r="A12" s="151"/>
+      <c r="B12" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="158"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="158"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="148"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="158"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="158"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="145"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="148"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="158"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="158"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="158"/>
-      <c r="AJ15" s="158"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
     </row>
     <row r="16" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="148"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="158"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="148"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="158"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
     </row>
     <row r="18" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="148"/>
-      <c r="B18" s="159" t="s">
+      <c r="A18" s="151"/>
+      <c r="B18" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
-      <c r="B20" s="162" t="s">
+      <c r="A20" s="151"/>
+      <c r="B20" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="158"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="148"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="18"/>
       <c r="K23" s="102"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="158"/>
-      <c r="AJ23" s="158"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
     </row>
     <row r="24" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
-      <c r="B24" s="159" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="158"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
-      <c r="B26" s="162" t="s">
+      <c r="A26" s="151"/>
+      <c r="B26" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="148"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
     </row>
     <row r="28" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
     </row>
     <row r="30" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
-      <c r="B30" s="159" t="s">
+      <c r="A30" s="151"/>
+      <c r="B30" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A31" s="148"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="148"/>
-      <c r="B32" s="165" t="s">
+      <c r="A32" s="151"/>
+      <c r="B32" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
     </row>
     <row r="33" spans="1:36" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="148"/>
-      <c r="B33" s="167" t="s">
+      <c r="A33" s="151"/>
+      <c r="B33" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168" t="s">
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
     </row>
     <row r="34" spans="1:36" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
-      <c r="B34" s="170" t="s">
+      <c r="A34" s="151"/>
+      <c r="B34" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="174" t="s">
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="158"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="158"/>
-      <c r="U34" s="158"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="145"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="158"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="158"/>
-      <c r="W35" s="158"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="158"/>
-      <c r="Z35" s="158"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
-      <c r="AC35" s="158"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="158"/>
-      <c r="AF35" s="158"/>
-      <c r="AG35" s="158"/>
-      <c r="AH35" s="158"/>
-      <c r="AI35" s="158"/>
-      <c r="AJ35" s="158"/>
+      <c r="A35" s="151"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="145"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="158"/>
-      <c r="S36" s="158"/>
-      <c r="T36" s="158"/>
-      <c r="U36" s="158"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="158"/>
-      <c r="X36" s="158"/>
-      <c r="Y36" s="158"/>
-      <c r="Z36" s="158"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="158"/>
-      <c r="AC36" s="158"/>
-      <c r="AD36" s="158"/>
-      <c r="AE36" s="158"/>
-      <c r="AF36" s="158"/>
-      <c r="AG36" s="158"/>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="158"/>
-      <c r="AJ36" s="158"/>
+      <c r="A36" s="151"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="145"/>
+      <c r="Z36" s="145"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="145"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="145"/>
+      <c r="AE36" s="145"/>
+      <c r="AF36" s="145"/>
+      <c r="AG36" s="145"/>
+      <c r="AH36" s="145"/>
+      <c r="AI36" s="145"/>
+      <c r="AJ36" s="145"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="158"/>
-      <c r="S37" s="158"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="158"/>
-      <c r="V37" s="158"/>
-      <c r="W37" s="158"/>
-      <c r="X37" s="158"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="158"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
-      <c r="AC37" s="158"/>
-      <c r="AD37" s="158"/>
-      <c r="AE37" s="158"/>
-      <c r="AF37" s="158"/>
-      <c r="AG37" s="158"/>
-      <c r="AH37" s="158"/>
-      <c r="AI37" s="158"/>
-      <c r="AJ37" s="158"/>
+      <c r="A37" s="151"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="145"/>
+      <c r="AE37" s="145"/>
+      <c r="AF37" s="145"/>
+      <c r="AG37" s="145"/>
+      <c r="AH37" s="145"/>
+      <c r="AI37" s="145"/>
+      <c r="AJ37" s="145"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="148"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="158"/>
-      <c r="S38" s="158"/>
-      <c r="T38" s="158"/>
-      <c r="U38" s="158"/>
-      <c r="V38" s="158"/>
-      <c r="W38" s="158"/>
-      <c r="X38" s="158"/>
-      <c r="Y38" s="158"/>
-      <c r="Z38" s="158"/>
-      <c r="AA38" s="158"/>
-      <c r="AB38" s="158"/>
-      <c r="AC38" s="158"/>
-      <c r="AD38" s="158"/>
-      <c r="AE38" s="158"/>
-      <c r="AF38" s="158"/>
-      <c r="AG38" s="158"/>
-      <c r="AH38" s="158"/>
-      <c r="AI38" s="158"/>
-      <c r="AJ38" s="158"/>
+      <c r="A38" s="151"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="145"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="145"/>
+      <c r="AB38" s="145"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="145"/>
+      <c r="AE38" s="145"/>
+      <c r="AF38" s="145"/>
+      <c r="AG38" s="145"/>
+      <c r="AH38" s="145"/>
+      <c r="AI38" s="145"/>
+      <c r="AJ38" s="145"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A39" s="148"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="158"/>
-      <c r="S39" s="158"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="158"/>
-      <c r="V39" s="158"/>
-      <c r="W39" s="158"/>
-      <c r="X39" s="158"/>
-      <c r="Y39" s="158"/>
-      <c r="Z39" s="158"/>
-      <c r="AA39" s="158"/>
-      <c r="AB39" s="158"/>
-      <c r="AC39" s="158"/>
-      <c r="AD39" s="158"/>
-      <c r="AE39" s="158"/>
-      <c r="AF39" s="158"/>
-      <c r="AG39" s="158"/>
-      <c r="AH39" s="158"/>
-      <c r="AI39" s="158"/>
-      <c r="AJ39" s="158"/>
+      <c r="A39" s="151"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="145"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="145"/>
+      <c r="T39" s="145"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="145"/>
+      <c r="Z39" s="145"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="145"/>
+      <c r="AD39" s="145"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="145"/>
+      <c r="AG39" s="145"/>
+      <c r="AH39" s="145"/>
+      <c r="AI39" s="145"/>
+      <c r="AJ39" s="145"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="148"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="158"/>
-      <c r="P40" s="158"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="158"/>
-      <c r="S40" s="158"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="158"/>
-      <c r="V40" s="158"/>
-      <c r="W40" s="158"/>
-      <c r="X40" s="158"/>
-      <c r="Y40" s="158"/>
-      <c r="Z40" s="158"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
-      <c r="AC40" s="158"/>
-      <c r="AD40" s="158"/>
-      <c r="AE40" s="158"/>
-      <c r="AF40" s="158"/>
-      <c r="AG40" s="158"/>
-      <c r="AH40" s="158"/>
-      <c r="AI40" s="158"/>
-      <c r="AJ40" s="158"/>
+      <c r="A40" s="151"/>
+      <c r="L40" s="145"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="145"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="145"/>
+      <c r="AC40" s="145"/>
+      <c r="AD40" s="145"/>
+      <c r="AE40" s="145"/>
+      <c r="AF40" s="145"/>
+      <c r="AG40" s="145"/>
+      <c r="AH40" s="145"/>
+      <c r="AI40" s="145"/>
+      <c r="AJ40" s="145"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="148"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="169"/>
-      <c r="S41" s="169"/>
-      <c r="T41" s="169"/>
-      <c r="U41" s="169"/>
-      <c r="V41" s="169"/>
-      <c r="W41" s="169"/>
-      <c r="X41" s="169"/>
-      <c r="Y41" s="169"/>
-      <c r="Z41" s="169"/>
-      <c r="AA41" s="169"/>
-      <c r="AB41" s="169"/>
-      <c r="AC41" s="169"/>
-      <c r="AD41" s="169"/>
-      <c r="AE41" s="169"/>
-      <c r="AF41" s="169"/>
-      <c r="AG41" s="169"/>
-      <c r="AH41" s="169"/>
-      <c r="AI41" s="169"/>
-      <c r="AJ41" s="169"/>
+      <c r="A41" s="151"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="152"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="152"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+      <c r="AC41" s="152"/>
+      <c r="AD41" s="152"/>
+      <c r="AE41" s="152"/>
+      <c r="AF41" s="152"/>
+      <c r="AG41" s="152"/>
+      <c r="AH41" s="152"/>
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="152"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="148"/>
+      <c r="A42" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B14:K16"/>
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
@@ -21883,22 +21943,6 @@
     <mergeCell ref="B26:K28"/>
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B2:K4"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B14:K16"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -26842,27 +26886,27 @@
       <c r="C5" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203"/>
-      <c r="X5" s="204"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
+      <c r="W5" s="202"/>
+      <c r="X5" s="203"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="17"/>
@@ -26946,42 +26990,42 @@
     <row r="7" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7"/>
-      <c r="D7" s="205" t="s">
+      <c r="D7" s="204" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="208" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="207" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="206"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="208" t="s">
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="208" t="s">
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207" t="s">
         <v>215</v>
       </c>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="206"/>
-      <c r="S7" s="207"/>
-      <c r="T7" s="208" t="s">
+      <c r="Q7" s="205"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="206"/>
+      <c r="T7" s="207" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="206"/>
-      <c r="V7" s="206"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="208" t="s">
+      <c r="U7" s="205"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="206"/>
+      <c r="X7" s="207" t="s">
         <v>217</v>
       </c>
-      <c r="Y7" s="206"/>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="207"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="206"/>
     </row>
     <row r="8" spans="2:27" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -27142,7 +27186,7 @@
       <c r="E12" s="200"/>
       <c r="F12" s="200"/>
       <c r="G12" s="201"/>
-      <c r="H12" s="202">
+      <c r="H12" s="208">
         <v>10000</v>
       </c>
       <c r="I12" s="200"/>
@@ -27402,6 +27446,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="L8:O8"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="P9:S9"/>
@@ -27418,63 +27519,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -27635,18 +27679,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27668,25 +27712,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC110AF7-0F87-4C41-8EA1-AB1BAC52A574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8101d79-ebe3-43cf-9931-de7c950634a8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AE3C057-6732-4B7D-8272-ACE7E342AEC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC110AF7-0F87-4C41-8EA1-AB1BAC52A574}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a8101d79-ebe3-43cf-9931-de7c950634a8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>